--- a/biology/Zoologie/Doriprismatica_atromarginata/Doriprismatica_atromarginata.xlsx
+++ b/biology/Zoologie/Doriprismatica_atromarginata/Doriprismatica_atromarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doriprismatica atromarginata · Doris à rebord noir
-Doriprismatica atromarginata, communément nommé Doris à rebord noir[2] ou Doris à bords noirs[3], est une espèce de nudibranche de la famille Chromodorididae.
+Doriprismatica atromarginata, communément nommé Doris à rebord noir ou Doris à bords noirs, est une espèce de nudibranche de la famille Chromodorididae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Doris à rebord noir se rencontre principalement dans la zone tropicale et subtropicale Indo-Pacifique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Doris à rebord noir se rencontre principalement dans la zone tropicale et subtropicale Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat correspond à la zone récifale externe, sur les pentes et les plateaux jusqu'à la zone des 30 m de profondeur.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer plus de 6 cm[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer plus de 6 cm.
 Le corps est allongé, la jupe du manteau est réduite donnant une impression d'épaisseur et d'étroitesse au corps de l'animal.
 Le bord de la jupe est très ondulé et marqué d'un trait noir périphérique continu.
 La couleur de fond de l'animal est crème avec une intensité variable de la teinte d'un individu à l'autre.
@@ -610,7 +628,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Doris à rebord noir est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
@@ -641,9 +661,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doriprismatica atromarginata se nourrit principalement d'éponges sans spicules[2],[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doriprismatica atromarginata se nourrit principalement d'éponges sans spicules,.
 </t>
         </is>
       </c>
@@ -672,12 +694,84 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doriprismatica atromarginata a été nommée et décrite par le zoologiste français Georges Cuvier en 1804 sous le protonyme Doris atromarginata[6] et transférée dans le genre Doriprismatica par le naturaliste français Alcide Dessalines d'Orbigny en 1839[7].
-Publication originale
-Cuvier, G. 1804. Mémoire sur le genre Doris. Annales du Muséum d'histoire naturelle, 4: 447-473. (BHL - Doris atro-marginata p. 473)
-Synonymes taxonomiques
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doriprismatica atromarginata a été nommée et décrite par le zoologiste français Georges Cuvier en 1804 sous le protonyme Doris atromarginata et transférée dans le genre Doriprismatica par le naturaliste français Alcide Dessalines d'Orbigny en 1839.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Doriprismatica_atromarginata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doriprismatica_atromarginata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cuvier, G. 1804. Mémoire sur le genre Doris. Annales du Muséum d'histoire naturelle, 4: 447-473. (BHL - Doris atro-marginata p. 473)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doriprismatica_atromarginata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doriprismatica_atromarginata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymes taxonomiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chromodoris tritos Yonow, 1994
 Casella atromarginata Cuvier, 1804
 Casella maccarthyi Kelaart, 1859
